--- a/simulation_data/two_step_algorithm/2s_error_level_5_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_5_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.76928853981936</v>
+        <v>92.45308785310777</v>
       </c>
       <c r="D2" t="n">
-        <v>6.888774133742497</v>
+        <v>6.624292271111315</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.2774607484919</v>
+        <v>92.45463763912427</v>
       </c>
       <c r="D3" t="n">
-        <v>7.396067354406245</v>
+        <v>6.822188376736619</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.25298441935684</v>
+        <v>91.85818127440551</v>
       </c>
       <c r="D4" t="n">
-        <v>7.500563008999555</v>
+        <v>7.037531488022259</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.36603429705193</v>
+        <v>90.06142182831238</v>
       </c>
       <c r="D5" t="n">
-        <v>7.048185524256937</v>
+        <v>6.324823153735045</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.95922992821578</v>
+        <v>89.32661512540898</v>
       </c>
       <c r="D6" t="n">
-        <v>7.628893787405715</v>
+        <v>7.03355941361668</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.6142945102129</v>
+        <v>87.55117391894873</v>
       </c>
       <c r="D7" t="n">
-        <v>7.031631012017558</v>
+        <v>6.696033037315757</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.64653245060919</v>
+        <v>88.00294704497975</v>
       </c>
       <c r="D8" t="n">
-        <v>6.939834496302198</v>
+        <v>6.200838669556598</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.36288028585028</v>
+        <v>85.39216887755191</v>
       </c>
       <c r="D9" t="n">
-        <v>7.645717498534639</v>
+        <v>6.592690013723094</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.7701988774604</v>
+        <v>84.25572711658516</v>
       </c>
       <c r="D10" t="n">
-        <v>7.175527368714691</v>
+        <v>7.98363367151481</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.79976300749732</v>
+        <v>82.78924259736692</v>
       </c>
       <c r="D11" t="n">
-        <v>7.050500300023647</v>
+        <v>6.526498309850399</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.1200091327661</v>
+        <v>81.03617505682192</v>
       </c>
       <c r="D12" t="n">
-        <v>7.480260812809189</v>
+        <v>6.896195799037178</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.41221544313714</v>
+        <v>81.31796497183379</v>
       </c>
       <c r="D13" t="n">
-        <v>7.543341951035272</v>
+        <v>6.277829024644524</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.84622238252933</v>
+        <v>78.58015680614412</v>
       </c>
       <c r="D14" t="n">
-        <v>7.624137537145922</v>
+        <v>6.915770810597219</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.78327675021669</v>
+        <v>77.7170221545629</v>
       </c>
       <c r="D15" t="n">
-        <v>7.896830569690631</v>
+        <v>6.33228573243822</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43360858626373</v>
+        <v>78.04053364317203</v>
       </c>
       <c r="D16" t="n">
-        <v>6.553029208178105</v>
+        <v>6.64718574506908</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.09561726416533</v>
+        <v>78.17283827821683</v>
       </c>
       <c r="D17" t="n">
-        <v>7.301272629491167</v>
+        <v>6.686537686971213</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.13119623463166</v>
+        <v>74.96298944536321</v>
       </c>
       <c r="D18" t="n">
-        <v>5.590387290807573</v>
+        <v>7.331771453348152</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.54175737486574</v>
+        <v>73.33313631724492</v>
       </c>
       <c r="D19" t="n">
-        <v>6.247870133943406</v>
+        <v>6.290691269462814</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.35846510014866</v>
+        <v>74.01639350897432</v>
       </c>
       <c r="D20" t="n">
-        <v>6.562110342880844</v>
+        <v>6.232013723457026</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.16625307168276</v>
+        <v>73.26222461059572</v>
       </c>
       <c r="D21" t="n">
-        <v>6.759666328458418</v>
+        <v>7.371763638473214</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.48493992431339</v>
+        <v>72.02488000324549</v>
       </c>
       <c r="D22" t="n">
-        <v>6.089074310938843</v>
+        <v>6.658405092929377</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.05107372975662</v>
+        <v>69.42910057026808</v>
       </c>
       <c r="D23" t="n">
-        <v>6.641276345247651</v>
+        <v>7.984324181731044</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.34056489913687</v>
+        <v>69.43477000938181</v>
       </c>
       <c r="D24" t="n">
-        <v>7.188415054076978</v>
+        <v>6.785956888213726</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.21797622352894</v>
+        <v>67.61165954034217</v>
       </c>
       <c r="D25" t="n">
-        <v>8.09701571921828</v>
+        <v>6.120269603989577</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.70389120485123</v>
+        <v>67.81485907848283</v>
       </c>
       <c r="D26" t="n">
-        <v>6.926450803919597</v>
+        <v>6.398810116831695</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.98768541455209</v>
+        <v>67.81882100080838</v>
       </c>
       <c r="D27" t="n">
-        <v>7.592778754012943</v>
+        <v>7.25664689577183</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.96215589652644</v>
+        <v>65.86667272674136</v>
       </c>
       <c r="D28" t="n">
-        <v>7.711538615296495</v>
+        <v>6.172401644939217</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.2949823059509</v>
+        <v>64.1326872234622</v>
       </c>
       <c r="D29" t="n">
-        <v>6.927613670797473</v>
+        <v>6.830507203364919</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.32938564778462</v>
+        <v>61.776632183091</v>
       </c>
       <c r="D30" t="n">
-        <v>7.550327964574806</v>
+        <v>7.117781821308372</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.98944882079635</v>
+        <v>61.95868739469622</v>
       </c>
       <c r="D31" t="n">
-        <v>7.678893808814427</v>
+        <v>6.747652660424643</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.49177503244546</v>
+        <v>60.52579200910667</v>
       </c>
       <c r="D32" t="n">
-        <v>7.367292225139592</v>
+        <v>6.087299470447162</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.92150522510164</v>
+        <v>60.1364013543792</v>
       </c>
       <c r="D33" t="n">
-        <v>6.563440205352965</v>
+        <v>7.289763539014649</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.75155353101212</v>
+        <v>58.28682324572707</v>
       </c>
       <c r="D34" t="n">
-        <v>6.769931719123483</v>
+        <v>6.554821202309514</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.77630800416532</v>
+        <v>58.72013733372586</v>
       </c>
       <c r="D35" t="n">
-        <v>7.237356036153003</v>
+        <v>7.36167836294288</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.25648871561254</v>
+        <v>56.40272515693124</v>
       </c>
       <c r="D36" t="n">
-        <v>6.928233636918873</v>
+        <v>6.287845440335682</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.37751224795061</v>
+        <v>55.55680427068459</v>
       </c>
       <c r="D37" t="n">
-        <v>6.399133522496118</v>
+        <v>6.537490065232086</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.03528686127125</v>
+        <v>54.68365773701196</v>
       </c>
       <c r="D38" t="n">
-        <v>7.252484675608705</v>
+        <v>6.830952202920618</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.32439822181735</v>
+        <v>53.78820951522717</v>
       </c>
       <c r="D39" t="n">
-        <v>6.595086587395304</v>
+        <v>6.888496637591309</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.32049702267806</v>
+        <v>53.4176123862766</v>
       </c>
       <c r="D40" t="n">
-        <v>7.249524035829969</v>
+        <v>7.22016592146557</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.4542024081972</v>
+        <v>52.67713598981208</v>
       </c>
       <c r="D41" t="n">
-        <v>6.566935394946214</v>
+        <v>6.136101482624913</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.67420243109129</v>
+        <v>51.15516355391296</v>
       </c>
       <c r="D42" t="n">
-        <v>6.560037833188136</v>
+        <v>6.478530789894651</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.87419767386418</v>
+        <v>49.67868156500651</v>
       </c>
       <c r="D43" t="n">
-        <v>7.014730910313503</v>
+        <v>7.39572822006323</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.03603841965312</v>
+        <v>47.85632188176967</v>
       </c>
       <c r="D44" t="n">
-        <v>7.38647599533603</v>
+        <v>6.54702369916123</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.83116853951924</v>
+        <v>46.19204198786426</v>
       </c>
       <c r="D45" t="n">
-        <v>7.324321053701627</v>
+        <v>6.641205198478014</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.16044442692797</v>
+        <v>46.43967812765452</v>
       </c>
       <c r="D46" t="n">
-        <v>6.657906124307571</v>
+        <v>7.578754123860129</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.54661734449</v>
+        <v>44.86344179118726</v>
       </c>
       <c r="D47" t="n">
-        <v>6.634996416862966</v>
+        <v>6.685627848390439</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.98864554919022</v>
+        <v>43.50137604176445</v>
       </c>
       <c r="D48" t="n">
-        <v>7.109444511507655</v>
+        <v>7.280265582454414</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.14382989373667</v>
+        <v>43.26889573119831</v>
       </c>
       <c r="D49" t="n">
-        <v>7.389904609624564</v>
+        <v>6.360130656599428</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.57319013646033</v>
+        <v>42.47490771743741</v>
       </c>
       <c r="D50" t="n">
-        <v>7.247378021774574</v>
+        <v>6.277897179618354</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.09970686363654</v>
+        <v>40.77240090412293</v>
       </c>
       <c r="D51" t="n">
-        <v>7.413471743457086</v>
+        <v>6.522890554235091</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.47477515890238</v>
+        <v>39.47319530688232</v>
       </c>
       <c r="D52" t="n">
-        <v>6.732566542239133</v>
+        <v>6.884260297365429</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.39901845181657</v>
+        <v>39.84878032684396</v>
       </c>
       <c r="D53" t="n">
-        <v>6.443701600460434</v>
+        <v>6.679478872584571</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.3831820981158</v>
+        <v>38.75676482351869</v>
       </c>
       <c r="D54" t="n">
-        <v>6.667883506821581</v>
+        <v>6.20010026878027</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.01958264235915</v>
+        <v>36.63461798377168</v>
       </c>
       <c r="D55" t="n">
-        <v>6.912141993133201</v>
+        <v>7.148284007661498</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.77613554670245</v>
+        <v>35.77534362674649</v>
       </c>
       <c r="D56" t="n">
-        <v>7.2445167928678</v>
+        <v>6.586774256764753</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.88322556102192</v>
+        <v>35.27680899706414</v>
       </c>
       <c r="D57" t="n">
-        <v>6.291558899149454</v>
+        <v>6.646687551994189</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.01161701472382</v>
+        <v>34.59192747415365</v>
       </c>
       <c r="D58" t="n">
-        <v>6.399322863257708</v>
+        <v>6.49972077823664</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.02042510940898</v>
+        <v>31.72233343604296</v>
       </c>
       <c r="D59" t="n">
-        <v>6.701159302712305</v>
+        <v>7.055547499373472</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.8494955737397</v>
+        <v>32.78734059027965</v>
       </c>
       <c r="D60" t="n">
-        <v>6.104691530627792</v>
+        <v>6.386229018951818</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.22520793127353</v>
+        <v>31.5140488157876</v>
       </c>
       <c r="D61" t="n">
-        <v>6.677237535202316</v>
+        <v>6.501213806090268</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.16978676308064</v>
+        <v>30.27263917769947</v>
       </c>
       <c r="D62" t="n">
-        <v>7.468302161413974</v>
+        <v>6.777445894011366</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.7346895548668</v>
+        <v>29.19661235225053</v>
       </c>
       <c r="D63" t="n">
-        <v>7.187949244640992</v>
+        <v>7.459373013249826</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.66263713210997</v>
+        <v>28.34671834332544</v>
       </c>
       <c r="D64" t="n">
-        <v>6.508879289192186</v>
+        <v>6.837245062449185</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.66214654603295</v>
+        <v>26.03845204489014</v>
       </c>
       <c r="D65" t="n">
-        <v>7.185469975314701</v>
+        <v>7.015877800020717</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.40880613609739</v>
+        <v>27.05475337742913</v>
       </c>
       <c r="D66" t="n">
-        <v>6.720739667003138</v>
+        <v>6.422105413380663</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.69814774424661</v>
+        <v>26.07652215296859</v>
       </c>
       <c r="D67" t="n">
-        <v>6.243716306117944</v>
+        <v>6.211049902363124</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.66696403461387</v>
+        <v>25.05923544829689</v>
       </c>
       <c r="D68" t="n">
-        <v>6.393150934507212</v>
+        <v>6.240267929814361</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.71878629410376</v>
+        <v>23.53649173331998</v>
       </c>
       <c r="D69" t="n">
-        <v>7.109010228262209</v>
+        <v>6.800277541162826</v>
       </c>
     </row>
   </sheetData>
